--- a/biology/Zoologie/Conus_leopardus/Conus_leopardus.xlsx
+++ b/biology/Zoologie/Conus_leopardus/Conus_leopardus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus leopardus est une espèce de mollusques gastéropodes de la famille des Conidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Conus leopardus a été initialement décrite en 1798 par le naturaliste allemand Peter Friedrich Röding sous le protonyme de Cucullus leopardus[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus leopardus a été initialement décrite en 1798 par le naturaliste allemand Peter Friedrich Röding sous le protonyme de Cucullus leopardus.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Océan Indien et Pacifique occidental (Cebu).
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus leopardus se caractérise par une coquille lourde atteignant au maximum 20 cm et présentant une spire plus ou moins basse. L'arête de l'épaulement est lisse avec un replat subconcave. On note aussi la présence d'un sillon anal et de taches noires sur l'ensemble de la coquille. La base est plus claire.
 </t>
